--- a/data/trans_orig/P79A4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79A4_2023-Estudios-trans_orig.xlsx
@@ -775,16 +775,16 @@
         <v>2842</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>3918</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7254804934550574</v>
+        <v>0.7254804934550573</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1234550759550067</v>
+        <v>0.1407526892224202</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3434</v>
+        <v>3322</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2745195065449427</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8765449240449934</v>
+        <v>0.8478744920122854</v>
       </c>
     </row>
     <row r="6">
@@ -942,19 +942,19 @@
         <v>6693</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1835</v>
+        <v>1962</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12635</v>
+        <v>12594</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4274356125000245</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1172030551753961</v>
+        <v>0.125265671321059</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8068750973921851</v>
+        <v>0.8042936087360456</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -963,7 +963,7 @@
         <v>7740</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4790</v>
+        <v>4218</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>8589</v>
@@ -972,7 +972,7 @@
         <v>0.901193933175786</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5576650300610886</v>
+        <v>0.4911184911070755</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -984,19 +984,19 @@
         <v>14434</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7378</v>
+        <v>7813</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20257</v>
+        <v>20858</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5952464055000343</v>
+        <v>0.595246405500034</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3042855085510872</v>
+        <v>0.322206709001937</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8353899023565562</v>
+        <v>0.8601839395505275</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>8966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3024</v>
+        <v>3065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13824</v>
+        <v>13697</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5725643874999754</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1931249026078148</v>
+        <v>0.1957063912639551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8827969448246046</v>
+        <v>0.8747343286789416</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3799</v>
+        <v>4371</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.098806066824214</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4423349699389113</v>
+        <v>0.5088815088929245</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1055,19 +1055,19 @@
         <v>9814</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3991</v>
+        <v>3390</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16870</v>
+        <v>16435</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4047535944999659</v>
+        <v>0.4047535944999658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1646100976434439</v>
+        <v>0.1398160604494724</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.695714491448913</v>
+        <v>0.6777932909980632</v>
       </c>
     </row>
     <row r="9">
@@ -1344,19 +1344,19 @@
         <v>8704</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3196</v>
+        <v>3644</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14377</v>
+        <v>14321</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4643227137346333</v>
+        <v>0.4643227137346334</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1705252439725731</v>
+        <v>0.1943889212680483</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7669815054933348</v>
+        <v>0.764010627221537</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1365,19 +1365,19 @@
         <v>9714</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6424</v>
+        <v>6773</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12153</v>
+        <v>12136</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7992928786629157</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5285902286966705</v>
+        <v>0.5572729994998205</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>1</v>
+        <v>0.9985628398894143</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1386,19 +1386,19 @@
         <v>18417</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10613</v>
+        <v>11510</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24498</v>
+        <v>24175</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5960736388762953</v>
+        <v>0.5960736388762952</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3434965193549841</v>
+        <v>0.3725129157656568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7928566491138113</v>
+        <v>0.7824291778356733</v>
       </c>
     </row>
     <row r="14">
@@ -1415,19 +1415,19 @@
         <v>10041</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4368</v>
+        <v>4424</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15549</v>
+        <v>15101</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5356772862653668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2330184945066652</v>
+        <v>0.235989372778463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.829474756027427</v>
+        <v>0.8056110787319519</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1436,19 +1436,19 @@
         <v>2439</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5729</v>
+        <v>5380</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2007071213370842</v>
+        <v>0.2007071213370843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0</v>
+        <v>0.001437160110575823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4714097713033295</v>
+        <v>0.4427270005001793</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1457,19 +1457,19 @@
         <v>12481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6400</v>
+        <v>6723</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20285</v>
+        <v>19388</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4039263611237049</v>
+        <v>0.4039263611237048</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2071433508861885</v>
+        <v>0.2175708221643267</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6565034806450158</v>
+        <v>0.6274870842343431</v>
       </c>
     </row>
     <row r="15">
